--- a/date-add-payload/licensed-product-service-date-add-payload-data.xlsx
+++ b/date-add-payload/licensed-product-service-date-add-payload-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rohit/Personal Development/Learning/GO Lang/MathWorks-Utilities/lpsd-latest-date-removal-payload-builder/date-add-payload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\personal\lpsd-latest-date-removal-payload-builder\date-add-payload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D30F09-FDC0-234F-A3A7-54E9D301D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC2603-383B-41C0-A596-2107B150BAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{DB778B81-56D0-1F4D-AC4F-A779CF2E4563}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DB778B81-56D0-1F4D-AC4F-A779CF2E4563}"/>
   </bookViews>
   <sheets>
     <sheet name="ML-0000" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>licensed_product_id</t>
   </si>
@@ -46,35 +46,14 @@
   <si>
     <t>end_date</t>
   </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2021-01-02</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D755673-7F4A-DB49-AF9E-ADDCE33028B7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,49 +449,1533 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4048891</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5678</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4876612</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9012</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4788316</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3456</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>4788300</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4047728</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4871086</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4877160</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4048938</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4049352</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4869049</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6323002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4814522</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4078981</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4815351</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4869110</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4070854</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4814488</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4869037</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4815172</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3999791</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4869203</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4788420</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6323028</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4866323</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4869436</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4049403</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4869098</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44621.208333333336</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
